--- a/yakuinhosyu.xlsx
+++ b/yakuinhosyu.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10412"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusumidaichi/github/gittest/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A182C5DA-C7D7-184F-8C86-A4610A9BAB1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>会長</t>
     <rPh sb="0" eb="2">
@@ -70,6 +76,13 @@
     <t>金額</t>
     <rPh sb="0" eb="2">
       <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社長</t>
+    <rPh sb="0" eb="2">
+      <t>シャチョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -77,8 +90,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,6 +147,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -458,14 +479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="12.83203125" style="1"/>
   </cols>
@@ -521,6 +542,9 @@
     <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
